--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laras\Documents\3_Jahrgang\APR\Abschlussprojekt\15.05.2024\TownBuilder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\Schule\3. Klasse 2.0\APR\TownBuilder\Git\TownBuilder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F66B74-C186-48D2-9639-104D45D5C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35BFDE-4FF3-46DC-A628-D7F584F924B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simon" sheetId="1" r:id="rId1"/>
@@ -26,27 +26,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>von</t>
-  </si>
-  <si>
-    <t>bis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Arbeit</t>
   </si>
   <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>Stunden Schule</t>
+  </si>
+  <si>
+    <t>Stunden zu Hause</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>SIMON</t>
+  </si>
+  <si>
+    <t>DataProvider, Datenbank, Login, Register</t>
+  </si>
+  <si>
+    <t>Design Menü, Concept-Art für Sprites</t>
+  </si>
+  <si>
+    <t>Design Login, Design Register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0&quot; h&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -73,13 +99,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0&quot; h&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0&quot; h&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0&quot; h&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0&quot; h&quot;"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -97,8 +141,8 @@
   <autoFilter ref="A1:D1048576" xr:uid="{E1234E98-E02D-4FA1-80E8-D3FB0328A2C2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E44E82FC-3D45-44A3-A4FB-96C8F4A862D1}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{44E81D5A-055F-4783-8DC0-611073BF779C}" name="von"/>
-    <tableColumn id="2" xr3:uid="{7865953F-DE4D-4460-AC6E-3A8A2A2AC0D6}" name="bis"/>
+    <tableColumn id="2" xr3:uid="{73B274B2-84AA-4A7B-8A40-9126FAD24228}" name="Stunden zu Hause" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{44E81D5A-055F-4783-8DC0-611073BF779C}" name="Stunden Schule" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{83DE0D45-A624-4F29-A4AF-5DD74266FEB8}" name="Arbeit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -106,13 +150,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3F20CCAD-EF2E-4BCF-9F64-096907D40C49}" name="Tabelle13" displayName="Tabelle13" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{E1234E98-E02D-4FA1-80E8-D3FB0328A2C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3F20CCAD-EF2E-4BCF-9F64-096907D40C49}" name="Tabelle13" displayName="Tabelle13" ref="A1:D1048576" totalsRowShown="0">
+  <autoFilter ref="A1:D1048576" xr:uid="{E1234E98-E02D-4FA1-80E8-D3FB0328A2C2}"/>
   <tableColumns count="4">
     <tableColumn id="4" xr3:uid="{52D871D2-2444-4021-919F-65BEBA2876CF}" name="Datum"/>
-    <tableColumn id="1" xr3:uid="{C2FFBB81-3A9B-4F99-AC0E-CFB445F65CFE}" name="von"/>
-    <tableColumn id="2" xr3:uid="{FBF87CE6-77AC-4650-A170-0BA6AF0D785C}" name="bis"/>
-    <tableColumn id="3" xr3:uid="{40EA8D59-16ED-4727-9A72-120F125A7054}" name="Arbeit"/>
+    <tableColumn id="2" xr3:uid="{FBF87CE6-77AC-4650-A170-0BA6AF0D785C}" name="Stunden zu Hause" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{40EA8D59-16ED-4727-9A72-120F125A7054}" name="Stunden Schule" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{65D52EEF-6784-4AA9-AA60-0D060BE5D8CC}" name="Arbeit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -381,33 +425,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B2" s="2">
         <v>2</v>
       </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -417,34 +496,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F505CFC8-E328-4488-A017-E6028C646E25}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="2" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45428</v>
+      </c>
+      <c r="C2" s="2">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\Schule\3. Klasse 2.0\APR\TownBuilder\Git\TownBuilder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35BFDE-4FF3-46DC-A628-D7F584F924B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9A2E0C-8631-494A-B8DC-B160DC1891CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Arbeit</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Design Login, Design Register</t>
+  </si>
+  <si>
+    <t>Animation Orc Gegner</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +485,17 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45431</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
